--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H2">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I2">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J2">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>76326.07898643742</v>
+        <v>76573.48759557659</v>
       </c>
       <c r="R2">
-        <v>76326.07898643742</v>
+        <v>306293.9503823064</v>
       </c>
       <c r="S2">
-        <v>0.1339214667221875</v>
+        <v>0.1290528212877231</v>
       </c>
       <c r="T2">
-        <v>0.1339214667221875</v>
+        <v>0.08521108456018002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H3">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I3">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J3">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>51652.32290234372</v>
+        <v>55257.92698636954</v>
       </c>
       <c r="R3">
-        <v>51652.32290234372</v>
+        <v>331547.5619182173</v>
       </c>
       <c r="S3">
-        <v>0.09062898205368404</v>
+        <v>0.0931287264041758</v>
       </c>
       <c r="T3">
-        <v>0.09062898205368404</v>
+        <v>0.09223664815799355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H4">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I4">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J4">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>38967.97605370882</v>
+        <v>39330.50257246377</v>
       </c>
       <c r="R4">
-        <v>38967.97605370882</v>
+        <v>235983.0154347826</v>
       </c>
       <c r="S4">
-        <v>0.06837307218722817</v>
+        <v>0.06628550532330342</v>
       </c>
       <c r="T4">
-        <v>0.06837307218722817</v>
+        <v>0.06565055776609657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H5">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I5">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J5">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>36639.61177037475</v>
+        <v>37052.40337995239</v>
       </c>
       <c r="R5">
-        <v>36639.61177037475</v>
+        <v>222314.4202797143</v>
       </c>
       <c r="S5">
-        <v>0.06428773249693619</v>
+        <v>0.06244611995379258</v>
       </c>
       <c r="T5">
-        <v>0.06428773249693619</v>
+        <v>0.06184794979384109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H6">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I6">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J6">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>53833.723785797</v>
+        <v>56639.30434636053</v>
       </c>
       <c r="R6">
-        <v>53833.723785797</v>
+        <v>339835.8260781632</v>
       </c>
       <c r="S6">
-        <v>0.09445646028524694</v>
+        <v>0.09545682521706207</v>
       </c>
       <c r="T6">
-        <v>0.09445646028524694</v>
+        <v>0.09454244615794993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H7">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I7">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J7">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>64727.60521602414</v>
+        <v>65095.64609779696</v>
       </c>
       <c r="R7">
-        <v>64727.60521602414</v>
+        <v>260382.5843911878</v>
       </c>
       <c r="S7">
-        <v>0.1135708258966765</v>
+        <v>0.109708686991464</v>
       </c>
       <c r="T7">
-        <v>0.1135708258966765</v>
+        <v>0.07243852641837036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H8">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I8">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J8">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>6756.544363342317</v>
+        <v>7572.171798696294</v>
       </c>
       <c r="R8">
-        <v>6756.544363342317</v>
+        <v>45433.03079217776</v>
       </c>
       <c r="S8">
-        <v>0.01185500870905626</v>
+        <v>0.0127617294782005</v>
       </c>
       <c r="T8">
-        <v>0.01185500870905626</v>
+        <v>0.01263948512148335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H9">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I9">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J9">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>4572.371799963429</v>
+        <v>5464.326224639365</v>
       </c>
       <c r="R9">
-        <v>4572.371799963429</v>
+        <v>49178.93602175429</v>
       </c>
       <c r="S9">
-        <v>0.008022667297753878</v>
+        <v>0.009209280364120952</v>
       </c>
       <c r="T9">
-        <v>0.008022667297753878</v>
+        <v>0.01368159727183258</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H10">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I10">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J10">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>3449.526851802897</v>
+        <v>3889.300745718758</v>
       </c>
       <c r="R10">
-        <v>3449.526851802897</v>
+        <v>35003.70671146883</v>
       </c>
       <c r="S10">
-        <v>0.006052527545311239</v>
+        <v>0.006554817467925358</v>
       </c>
       <c r="T10">
-        <v>0.006052527545311239</v>
+        <v>0.00973804349967668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H11">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I11">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J11">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>3243.415169095289</v>
+        <v>3664.024883252179</v>
       </c>
       <c r="R11">
-        <v>3243.415169095289</v>
+        <v>32976.22394926961</v>
       </c>
       <c r="S11">
-        <v>0.005690884719905709</v>
+        <v>0.006175149693448587</v>
       </c>
       <c r="T11">
-        <v>0.005690884719905709</v>
+        <v>0.009173997083224689</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H12">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I12">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J12">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>4765.47397472476</v>
+        <v>5600.927377559628</v>
       </c>
       <c r="R12">
-        <v>4765.47397472476</v>
+        <v>50408.34639803666</v>
       </c>
       <c r="S12">
-        <v>0.008361483686787526</v>
+        <v>0.00943950057125873</v>
       </c>
       <c r="T12">
-        <v>0.008361483686787526</v>
+        <v>0.01402361967025672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H13">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I13">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J13">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>5729.823174234927</v>
+        <v>6437.15509215133</v>
       </c>
       <c r="R13">
-        <v>5729.823174234927</v>
+        <v>38622.93055290798</v>
       </c>
       <c r="S13">
-        <v>0.01005352736236684</v>
+        <v>0.01084883360800131</v>
       </c>
       <c r="T13">
-        <v>0.01005352736236684</v>
+        <v>0.01074491284335833</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H14">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I14">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J14">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>63.75464561692031</v>
+        <v>72.24585590863916</v>
       </c>
       <c r="R14">
-        <v>63.75464561692031</v>
+        <v>433.475135451835</v>
       </c>
       <c r="S14">
-        <v>0.0001118636744445946</v>
+        <v>0.0001217592645198362</v>
       </c>
       <c r="T14">
-        <v>0.0001118636744445946</v>
+        <v>0.0001205929349098092</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H15">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I15">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J15">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>43.14482789709158</v>
+        <v>52.13496676489333</v>
       </c>
       <c r="R15">
-        <v>43.14482789709158</v>
+        <v>469.21470088404</v>
       </c>
       <c r="S15">
-        <v>7.570176157590341E-05</v>
+        <v>8.786545787604727E-05</v>
       </c>
       <c r="T15">
-        <v>7.570176157590341E-05</v>
+        <v>0.0001305356945640124</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H16">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I16">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J16">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>32.54968074744544</v>
+        <v>37.107697597265</v>
       </c>
       <c r="R16">
-        <v>32.54968074744544</v>
+        <v>333.969278375385</v>
       </c>
       <c r="S16">
-        <v>5.711155407067907E-05</v>
+        <v>6.253930984195304E-05</v>
       </c>
       <c r="T16">
-        <v>5.711155407067907E-05</v>
+        <v>9.291037052683215E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H17">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I17">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J17">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>30.60481417336877</v>
+        <v>34.95834759146388</v>
       </c>
       <c r="R17">
-        <v>30.60481417336877</v>
+        <v>314.625128323175</v>
       </c>
       <c r="S17">
-        <v>5.369909809707161E-05</v>
+        <v>5.891691139970891E-05</v>
       </c>
       <c r="T17">
-        <v>5.369909809707161E-05</v>
+        <v>8.752882118905948E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H18">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I18">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J18">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>44.96693696020372</v>
+        <v>53.43827412151332</v>
       </c>
       <c r="R18">
-        <v>44.96693696020372</v>
+        <v>480.9444670936199</v>
       </c>
       <c r="S18">
-        <v>7.889882765738167E-05</v>
+        <v>9.006198172076466E-05</v>
       </c>
       <c r="T18">
-        <v>7.889882765738167E-05</v>
+        <v>0.0001337989196427581</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H19">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I19">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J19">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>54.06652073549884</v>
+        <v>61.41669676976916</v>
       </c>
       <c r="R19">
-        <v>54.06652073549884</v>
+        <v>368.500180618615</v>
       </c>
       <c r="S19">
-        <v>9.486492498520961E-05</v>
+        <v>0.0001035083844446594</v>
       </c>
       <c r="T19">
-        <v>9.486492498520961E-05</v>
+        <v>0.0001025168796574061</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H20">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I20">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J20">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>137.968136016159</v>
+        <v>148.0293002466758</v>
       </c>
       <c r="R20">
-        <v>137.968136016159</v>
+        <v>888.1758014800549</v>
       </c>
       <c r="S20">
-        <v>0.0002420784007454841</v>
+        <v>0.0002494805895609295</v>
       </c>
       <c r="T20">
-        <v>0.0002420784007454841</v>
+        <v>0.0002470908198799167</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H21">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I21">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J21">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>93.36749386808438</v>
+        <v>106.8227727601467</v>
       </c>
       <c r="R21">
-        <v>93.36749386808438</v>
+        <v>961.4049548413199</v>
       </c>
       <c r="S21">
-        <v>0.0001638222726626709</v>
+        <v>0.0001800333331463752</v>
       </c>
       <c r="T21">
-        <v>0.0001638222726626709</v>
+        <v>0.0002674631960615183</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H22">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I22">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J22">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>70.43908310038903</v>
+        <v>76.032409610245</v>
       </c>
       <c r="R22">
-        <v>70.43908310038903</v>
+        <v>684.291686492205</v>
       </c>
       <c r="S22">
-        <v>0.0001235921646786857</v>
+        <v>0.0001281409176676018</v>
       </c>
       <c r="T22">
-        <v>0.0001235921646786857</v>
+        <v>0.0001903701874905976</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H23">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I23">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J23">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>66.23029778868342</v>
+        <v>71.62846459025278</v>
       </c>
       <c r="R23">
-        <v>66.23029778868342</v>
+        <v>644.656181312275</v>
       </c>
       <c r="S23">
-        <v>0.0001162074449400683</v>
+        <v>0.0001207187465288428</v>
       </c>
       <c r="T23">
-        <v>0.0001162074449400683</v>
+        <v>0.0001793435760304074</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H24">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I24">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J24">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>97.31062599003619</v>
+        <v>109.4932051826066</v>
       </c>
       <c r="R24">
-        <v>97.31062599003619</v>
+        <v>985.4388466434599</v>
       </c>
       <c r="S24">
-        <v>0.0001707408782593896</v>
+        <v>0.0001845339357569918</v>
       </c>
       <c r="T24">
-        <v>0.0001707408782593896</v>
+        <v>0.0002741494332010575</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H25">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I25">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J25">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>117.0025652966074</v>
+        <v>125.8407216849658</v>
       </c>
       <c r="R25">
-        <v>117.0025652966074</v>
+        <v>755.0443301097949</v>
       </c>
       <c r="S25">
-        <v>0.0002052922849287786</v>
+        <v>0.0002120851573602107</v>
       </c>
       <c r="T25">
-        <v>0.0002052922849287786</v>
+        <v>0.000210053597791812</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H26">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I26">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J26">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>39782.13440895534</v>
+        <v>41316.30224414976</v>
       </c>
       <c r="R26">
-        <v>39782.13440895534</v>
+        <v>247897.8134648985</v>
       </c>
       <c r="S26">
-        <v>0.06980159154164323</v>
+        <v>0.0696322648635874</v>
       </c>
       <c r="T26">
-        <v>0.06980159154164323</v>
+        <v>0.06896525876229466</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H27">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I27">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J27">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>26921.85527571683</v>
+        <v>29815.19171246273</v>
       </c>
       <c r="R27">
-        <v>26921.85527571683</v>
+        <v>268336.7254121646</v>
       </c>
       <c r="S27">
-        <v>0.04723699151435665</v>
+        <v>0.05024891419402881</v>
       </c>
       <c r="T27">
-        <v>0.04723699151435665</v>
+        <v>0.07465137124372867</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H28">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I28">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J28">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>20310.61049643414</v>
+        <v>21221.32584949798</v>
       </c>
       <c r="R28">
-        <v>20310.61049643414</v>
+        <v>190991.9326454818</v>
       </c>
       <c r="S28">
-        <v>0.03563692493870733</v>
+        <v>0.03576527670788768</v>
       </c>
       <c r="T28">
-        <v>0.03563692493870733</v>
+        <v>0.05313402273421619</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H29">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I29">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J29">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>19097.03707431369</v>
+        <v>19992.14538853918</v>
       </c>
       <c r="R29">
-        <v>19097.03707431369</v>
+        <v>179929.3084968526</v>
       </c>
       <c r="S29">
-        <v>0.03350759332854673</v>
+        <v>0.0336936823305194</v>
       </c>
       <c r="T29">
-        <v>0.03350759332854673</v>
+        <v>0.05005639681111281</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H30">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I30">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J30">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>28058.82948293076</v>
+        <v>30560.53329622403</v>
       </c>
       <c r="R30">
-        <v>28058.82948293076</v>
+        <v>275044.7996660163</v>
       </c>
       <c r="S30">
-        <v>0.04923192241448113</v>
+        <v>0.05150507265340936</v>
       </c>
       <c r="T30">
-        <v>0.04923192241448113</v>
+        <v>0.07651755985688105</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H31">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I31">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J31">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>33736.86064931005</v>
+        <v>35123.27142730471</v>
       </c>
       <c r="R31">
-        <v>33736.86064931005</v>
+        <v>210739.6285638282</v>
       </c>
       <c r="S31">
-        <v>0.05919457570407204</v>
+        <v>0.05919486512731321</v>
       </c>
       <c r="T31">
-        <v>0.05919457570407204</v>
+        <v>0.05862783867366463</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H32">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I32">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J32">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>11966.91444855961</v>
+        <v>12020.37550952699</v>
       </c>
       <c r="R32">
-        <v>11966.91444855961</v>
+        <v>48081.50203810794</v>
       </c>
       <c r="S32">
-        <v>0.02099710552896103</v>
+        <v>0.02025849182468113</v>
       </c>
       <c r="T32">
-        <v>0.02099710552896103</v>
+        <v>0.01337629075218705</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H33">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I33">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J33">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>8098.3975261137</v>
+        <v>8674.295152419787</v>
       </c>
       <c r="R33">
-        <v>8098.3975261137</v>
+        <v>52045.77091451872</v>
       </c>
       <c r="S33">
-        <v>0.01420941949591303</v>
+        <v>0.01461918866768268</v>
       </c>
       <c r="T33">
-        <v>0.01420941949591303</v>
+        <v>0.01447915174577017</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H34">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I34">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J34">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>6109.660575530361</v>
+        <v>6174.035227393009</v>
       </c>
       <c r="R34">
-        <v>6109.660575530361</v>
+        <v>37044.21136435805</v>
       </c>
       <c r="S34">
-        <v>0.01071998871571984</v>
+        <v>0.01040538559550844</v>
       </c>
       <c r="T34">
-        <v>0.01071998871571984</v>
+        <v>0.01030571261069164</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H35">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I35">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J35">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>5744.60401093608</v>
+        <v>5816.423100770755</v>
       </c>
       <c r="R35">
-        <v>5744.60401093608</v>
+        <v>34898.53860462453</v>
       </c>
       <c r="S35">
-        <v>0.01007946176587198</v>
+        <v>0.009802685427128357</v>
       </c>
       <c r="T35">
-        <v>0.01007946176587198</v>
+        <v>0.00970878569541983</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H36">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I36">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J36">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>8440.412183449056</v>
+        <v>8891.141414864413</v>
       </c>
       <c r="R36">
-        <v>8440.412183449056</v>
+        <v>53346.84848918647</v>
       </c>
       <c r="S36">
-        <v>0.01480951719723706</v>
+        <v>0.01498464964945196</v>
       </c>
       <c r="T36">
-        <v>0.01480951719723706</v>
+        <v>0.01484111198395309</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>72.71531212246509</v>
+        <v>73.03788349999999</v>
       </c>
       <c r="H37">
-        <v>72.71531212246509</v>
+        <v>146.075767</v>
       </c>
       <c r="I37">
-        <v>0.08862188830800599</v>
+        <v>0.08729228377295392</v>
       </c>
       <c r="J37">
-        <v>0.08862188830800599</v>
+        <v>0.07408232914289296</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>10148.42796022498</v>
+        <v>10218.60352323819</v>
       </c>
       <c r="R37">
-        <v>10148.42796022498</v>
+        <v>40874.41409295274</v>
       </c>
       <c r="S37">
-        <v>0.01780639560430305</v>
+        <v>0.01722188260850136</v>
       </c>
       <c r="T37">
-        <v>0.01780639560430305</v>
+        <v>0.01137127635487119</v>
       </c>
     </row>
   </sheetData>
